--- a/tazas_de_madera_personalizables_ES2023_01_26.xlsx
+++ b/tazas_de_madera_personalizables_ES2023_01_26.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,12 +464,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Personalized Mug, Taza personalizada, El café es mi lenguaje de amor,  Valentine's Day Gift: girlfriend, mother, wife Coffee Lover</t>
+          <t>Spanish cómico Cafecito because adulting ta’ carbon mug gift for her funny coffee cup mug drink taza de cafe</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.etsy.com/listing/1367129113/personalized-mug-taza-personalizada-el</t>
+          <t>https://www.etsy.com/listing/1199407875/spanish-comico-cafecito-because-adulting</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -482,12 +482,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ixtapa &amp; Zihuatanejo, Mexico Map | Engraved Wood Coastal Chart Wall Art Sign, Beach Home Decor Nautical Print, Unique Personalized Gift</t>
+          <t>Personalized Bread cutting board + Bread Knife. Customized Cutting Board. High-quality stainless steel bread knife,Perfect Gift mother's day</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.etsy.com/listing/984175019/ixtapa-zihuatanejo-mexico-map-engraved</t>
+          <t>https://www.etsy.com/listing/1025832745/personalized-bread-cutting-board-bread</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -500,12 +500,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Personalized Coffee Mug Monogram and Name - Professional Executive Gifts Coffee Mug - Taza de Café Personalizada - Apellido y Monograma</t>
+          <t>Personalized Mug, Taza personalizada, El café es mi lenguaje de amor,  Valentine's Day Gift: girlfriend, mother, wife Coffee Lover</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.etsy.com/listing/1126351838/personalized-coffee-mug-monogram-and</t>
+          <t>https://www.etsy.com/listing/1367129113/personalized-mug-taza-personalizada-el</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -518,145 +518,1009 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Wood Cup  with Handle, wooden jujube coffee cup whole</t>
+          <t>Handmade Paulownia Live Bark Wood Mug - Unique Rustic Stein Mug for Beer, Cold Drinks, Smoothies, Coffee</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.etsy.com/listing/1164436707/wood-cup-with-handle-wooden-jujube</t>
+          <t>https://www.etsy.com/listing/1319775938/handmade-paulownia-live-bark-wood-mug</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Handmade Wooden Teacup Wood Coffee Mug Rubber Kitchen Supplies Teacup Gift Wooden Tea Milk Cup, Jujube Wooden Flat Bottom Coffee Cup</t>
+          <t>Engraved Beer Mug Wooden Beer Mug Beer Cup Engraved Beer Stein Engraved Tankard Personalized Mug Tankard Wood Wooden Stein Engraved Wooden</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.etsy.com/listing/1315169382/handmade-wooden-teacup-wood-coffee-mug</t>
+          <t>https://www.etsy.com/listing/961100637/engraved-beer-mug-wooden-beer-mug-beer</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Set of 2 Cups made of Tunisian Olive Wood | Christmas Gift | Groomsmen Proposal (Free Personalization )</t>
+          <t>Personalized ceramic cup with name as a special and individual gift</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.etsy.com/listing/1384112680/set-of-2-cups-made-of-tunisian-olive</t>
+          <t>https://www.etsy.com/listing/1183157452/personalized-ceramic-cup-with-name-as-a</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Personalised / Custom Engrave Kuksa Travel Wooden Mug &amp; FREE spoon, Memory Camping Family Cup/Housewarming/ Groomsmen/ Father Gift for Him</t>
+          <t>Japanese Wooden Whisky Cup, Personalized Whisky Glass, Wood Water Juice Whisky Tea Cup, Heat-resistant  Old-Fashioned Whiskey Glass 2PCS/SET</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.etsy.com/listing/1003797179/personalised-custom-engrave-kuksa-travel</t>
+          <t>https://www.etsy.com/listing/958292529/japanese-wooden-whisky-cup-personalized</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Handmade Wooden Coffee Mug with Handle | Jujube Wood Tea Cup  | Gift For Craft Coffee Lovers And Enthusiasts | Kitchen Decor | Table Decor</t>
+          <t>Beer Mug GROOMSMAN GIFT bachelor party MEN keepsake</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.etsy.com/listing/1342018571/handmade-wooden-coffee-mug-with-handle</t>
+          <t>https://www.etsy.com/listing/897625159/beer-mug-groomsman-gift-bachelor-party</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Personalized Wooden Travel Mug Birthday gift Custom Name Engraving TEA/COFFEE LOVERS Double wall Stainless Steel and Bamboo Tumbler</t>
+          <t>TANGPIN TEA- European Ceramic Coffee Cup with Wood Lid and Coaster</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.etsy.com/listing/1171985624/personalized-wooden-travel-mug-birthday</t>
+          <t>https://www.etsy.com/listing/1162628534/tangpin-tea-european-ceramic-coffee-cup</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Natural eco-friendly wood beer mug,handmade drinkware outdoor water mug with handle,wooden cold cola cup,best gift for family</t>
+          <t>A beautiful oak mug with a lid Premium Quality 22 OZ/ 0.7L</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.etsy.com/listing/830128149/natural-eco-friendly-wood-beer</t>
+          <t>https://www.etsy.com/listing/1169718737/a-beautiful-oak-mug-with-a-lid-premium</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Personalised Wood Logo Gift Travel Mug Bamboo Wooden Tumbler</t>
+          <t>Personalized beer mug, Wooden tankard, Wood beer stein, Best Man mug, Groomsmen proposal, Groomsmen mug, Groomsmen gifts, Beer tankard</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.etsy.com/listing/748385817/personalised-wood-logo-gift-travel-mug</t>
+          <t>https://www.etsy.com/listing/748249287/personalized-beer-mug-wooden-tankard</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Personalized Coffee Mug Monogram and Name - Professional Executive Gifts Coffee Mug - Taza de Café Personalizada - Apellido y Monograma</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1126351838/personalized-coffee-mug-monogram-and</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Custom wood tags, Personalized, Wedding,  Baptism, Sympathy, Logo, Marquillas Etiquetas madera para Bautizo, Boda, Propuesta de Padrinos</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1248539075/custom-wood-tags-personalized-wedding</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ixtapa &amp; Zihuatanejo, Mexico Map | Engraved Wood Coastal Chart Wall Art Sign, Beach Home Decor Nautical Print, Unique Personalized Gift</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/984175019/ixtapa-zihuatanejo-mexico-map-engraved</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Coffee cup</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1389814121/coffee-cup</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Japanese Handcraft Wooden Mug for Coffee and Tea, Creative Wood Carving from Natural Jujube Wood</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1304098298/japanese-handcraft-wooden-mug-for-coffee</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Handmade Paulownia Wood Mug - Unique Rustic Stein Mug for Beer, Smoothies, Cold Drinks, Coffee</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1011379791/handmade-paulownia-wood-mug-unique</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Personalized Whiskey Tumbler, Eco-Friendly Wood Cup, Engraved Rocks Tumbler Gift for Men,Whisky Barrel Seamless Tumbler,Handmade Wooden Mugs</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1185324962/personalized-whiskey-tumbler-eco</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Wood Mug, Wooden Beer Mug, Viking Beer Mug, Double Wall Insulated Whiskey Barrel Cup, Gifts For Best Men, Gift For Him, Groomsmen gift</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1378814456/wood-mug-wooden-beer-mug-viking-beer-mug</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Personalized Beer Mug, Wooden Beer Mug, Wood Beer Stein, Tankard, Custom beer Mug, Engraved Gift, Christmas Gift</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1335930445/personalized-beer-mug-wooden-beer-mug</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Personalized mason jar mugs, Personalized Mug Glasses, Wedding Glasses, Groomsmen gifts, Gift for Best Man, Groomsman, Bridesmaid, Bride</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/669127348/personalized-mason-jar-mugs-personalized</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Custom Name Coffee Mug, Customised Ceramic Cup</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/738966666/custom-name-coffee-mug-customised</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Wooden Beer Mugs with Tray, Handmade Groomsmen Beer Mug, Viking Tankard,Viking Cup, Man Birthday Gift,Anniversary Gift for Him,Wood Beer Mug</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1056617541/wooden-beer-mugs-with-tray-handmade</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>caja de regalos del Atletico de Madrid personalizados con nombre, regalos del Atletico de madrid Herbybydb</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1315920332/caja-de-regalos-del-atletico-de-madrid</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>H0TTByYoung Two-Tone Coffee Mugs, 15oz</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1346192718/h0ttbyyoung-two-tone-coffee-mugs-15oz</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Personalized cafecito y chismesito coffee mug, personalized coffee mug, latino taza de cafe, Taza, Taza de concha, Taza personalizada, cafe,</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1304075634/personalized-cafecito-y-chismesito</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Personalized Acrylic Name, Guest Place Card, Laser Cut, Guest seating, Wedding Decor, Plate Ornament, Assigned Seating, Birthday Party.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1286167017/personalized-acrylic-name-guest-place</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Set of 3, 4, 6 Wooden Beer Mugs, Personalized Handmade Vintage Mug, Groomsmen Beer Mug, Viking Tankard, Beer Stein, Tankard Set Viking Cup</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1037933311/set-of-3-4-6-wooden-beer-mugs</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>22 OZ Wooden beer mug Wood Mug Personalized beer mug Groomsman Mug Large Beer mug Tankard Oak beer mug wedding mug for beer best man gift</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/749104095/22-oz-wooden-beer-mug-wood-mug</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Handmade Beer Mug  Wooden Tankard Beer Stein Oak Wood Stainless Steel Cup Gift</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1352450576/handmade-beer-mug-wooden-tankard-beer</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Customized Gifts Wooden Engraved  for Couple, Personalized Gifts Wooden for Couple, Wedding Gifts for Couple, Gifts Set for Man and Woman</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1399569599/customized-gifts-wooden-engraved-for</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Personalized mug - hand-inscribed as a gift (birthday, Valentine's Day, Mother's Day, Christmas, special occasion)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1279645406/personalized-mug-hand-inscribed-as-a</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3 pcs Personalized Tea Cup with Wooden Saucer, Custom Tea Cup Saucer and Spoon, Custom Name Tea Cup and Saucer Set, Alphabet Tea Cup</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1217189819/3-pcs-personalized-tea-cup-with-wooden</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Engraved Groomsmen Gift, Personalized Beer Mug, Viking Style HandCrafted Wooden Tankard Best Man Gifts For Men Groomsmen Proposal Beer Stein</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/695236170/engraved-groomsmen-gift-personalized</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Handmade Kuksa Cup is Made of Olive Wood | Wooden Mug Special for Campers | Portable Camping Cup | Wood Carving | Camping Mug</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1341095581/handmade-kuksa-cup-is-made-of-olive-wood</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mini cup, selectable, wooden cup, made of olive wood by hand</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/788962870/mini-cup-selectable-wooden-cup-made-of</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Set of 2 Large Wooden Cups made of Tunisian Olive Wood | Christmas gift</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1149763068/set-of-2-large-wooden-cups-made-of</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Personalized groomsman mug Fathers day gift Viking wooden beer tankard Birthday Mens Gift 5 anniversary for him personalized wedding mug</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1333433818/personalized-groomsman-mug-fathers-day</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Wooden Whisky Cup/Wood Water Juice Whisky Tea Cup/Handmade Wooden Mugs</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1364137685/wooden-whisky-cupwood-water-juice-whisky</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Tea/Coffee Japanese Hand crafted Ceramic Kiln Glazed Handpainted Wood Pattern, Colour &amp; Texture Mugs,Christmas Gift</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1339447556/teacoffee-japanese-hand-crafted-ceramic</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Personalised / Custom Engrave Kuksa Travel Wooden Mug &amp; FREE spoon, Memory Camping Family Cup/Housewarming/ Groomsmen/ Father Gift for Him</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1003797179/personalised-custom-engrave-kuksa-travel</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Embersceramic  Ceramic Coffee Cup Espresso Cup With Wooden HandleTea Cup</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1067187713/embersceramic-ceramic-coffee-cup</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ceramic coffee mug, handmade mug set with wood lid, coaster and mixing spoon</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1237809693/ceramic-coffee-mug-handmade-mug-set-with</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Engraved Bamboo Eco Mug Polished Handmade Glass for Cocktail Juice Beer Bamboo Cup Bulgarian Made Gift for Him Her</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1383867716/engraved-bamboo-eco-mug-polished</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Handmade Kuksa Cup is Made of Olive Wood | Wooden Mug Special for Campers | Portable Camping Cup | Wood Carving | Camping Mug</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1322907307/handmade-kuksa-cup-is-made-of-olive-wood</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Set of 2 Cups made of Tunisian Olive Wood | Christmas Gift | Groomsmen Proposal (Free Personalization )</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1384112680/set-of-2-cups-made-of-tunisian-olive</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Set of 2 Kuksa/Guksi Cup made of Tunisian Olive Wood</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1176503190/set-of-2-kuksaguksi-cup-made-of-tunisian</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Wooden Whisky Cup, Whisky Glass, Wood Water Juice Whisky Tea Cup, Heat-resistant Old-Fashioned Whiskey Glass Pack of Two</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1250378057/wooden-whisky-cup-whisky-glass-wood</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Custom Bamboo Coffee Mug, Personalized Insulated Mug, Engraved Coffee Mug, Eco Friendly Bamboo Mug, Drinks Flask, Monogram Cup, Gift for her</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1257331248/custom-bamboo-coffee-mug-personalized</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>17</v>
+      </c>
+      <c r="D51" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Groomsmen gifts Personalized wooden beer mug  Engraving mug Wooden tankard Wooden beer stein  Oak beer mug beer mug wood</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/738982618/groomsmen-gifts-personalized-wooden-beer</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>x2 Personalized Tea Cup with Wooden Saucer, Custom Tea Cup Set, Tea Cup Saucer and Spoon Set, Custom Name Tea Cup Set, Couple Tea Cup Set</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1203273208/x2-personalized-tea-cup-with-wooden</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Set of 5 Wooden Beer mug  Groomsmen gift Wedding party gifts Wooden beer stein Custom gift Custom Mug Personalized mug</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1254190448/set-of-5-wooden-beer-mug-groomsmen-gift</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Groomsmen Personalized Wooden Beer Mug, Custom Beer Mug, Wedding Gift, Best Man Gift, Wedding Glasses, Wedding Party Gift, Groomsman Gift</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1396052683/groomsmen-personalized-wooden-beer-mug</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Wood Cup  with Handle, wooden jujube coffee cup whole</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1164436707/wood-cup-with-handle-wooden-jujube</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Wooden Kuksa coffee cup for coffee and tea</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1179597468/wooden-kuksa-coffee-cup-for-coffee-and</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Wooden Beer Mug Wood Mug Large Beer Mug Tankard</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1082960637/wooden-beer-mug-wood-mug-large-beer-mug</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Set of 2 handmade wooden cups made of jujube</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/998599035/set-of-2-handmade-wooden-cups-made-of</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Handmade Mug with Tray / Wooden Oak Beer Cup 0.5 L, Tankard, Barrel, Tavern Beer Mug SET for 3—6 persons [Gift for Men]</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/821508457/handmade-mug-with-tray-wooden-oak-beer</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Personalized Ceramic Mugs, Wedding Favors Pottery Cups, Custom Handmade Anniversary Presents, Christmas New Home Gift, Holiday Gift Ideas</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.etsy.com/listing/1328426595/personalized-ceramic-mugs-wedding-favors</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
